--- a/Monthly RoA Total - Correct.xlsx
+++ b/Monthly RoA Total - Correct.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bwilzbach\CascadeProjects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\BW Code\CashDragProject\portfolio_optimizer_streamlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F592E2C-1B79-4BC9-99E3-1841EEAC8E3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E089F4-916D-4652-9AC8-AB01C1A6F1A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8010" yWindow="13155" windowWidth="27015" windowHeight="13095" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -553,14 +553,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y19"/>
+  <dimension ref="A1:Y20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="15.42578125" customWidth="1"/>
     <col min="24" max="24" width="12.7109375" customWidth="1"/>
     <col min="25" max="25" width="14.5703125" customWidth="1"/>
@@ -1681,6 +1682,69 @@
       <c r="X19" s="5"/>
       <c r="Y19" s="5"/>
     </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>45778</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2">
+        <v>4.60156707996138E-2</v>
+      </c>
+      <c r="D20" s="2">
+        <v>9.5751663312759194E-3</v>
+      </c>
+      <c r="E20" s="2">
+        <v>2.9482081213155699E-3</v>
+      </c>
+      <c r="F20" s="2">
+        <v>3.61638486420309E-3</v>
+      </c>
+      <c r="G20" s="2">
+        <v>1.19677490460344E-2</v>
+      </c>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2">
+        <v>7.8607950851264805E-2</v>
+      </c>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2">
+        <v>6.6286199885192604E-2</v>
+      </c>
+      <c r="L20" s="2">
+        <v>2.13044883464408E-2</v>
+      </c>
+      <c r="M20" s="2">
+        <v>7.56208581480451E-3</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2">
+        <v>6.7578221871267795E-4</v>
+      </c>
+      <c r="P20" s="2">
+        <v>4.8534157866455601E-3</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>8.6748451024642494E-3</v>
+      </c>
+      <c r="R20" s="2">
+        <v>-6.7549627172674306E-2</v>
+      </c>
+      <c r="S20" s="2">
+        <v>1.9812116106194998E-2</v>
+      </c>
+      <c r="T20" s="2">
+        <v>1.0157619985705101E-2</v>
+      </c>
+      <c r="U20" s="2">
+        <v>1.65367513349453E-2</v>
+      </c>
+      <c r="V20" s="2">
+        <v>1.4408686922871001E-2</v>
+      </c>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Monthly RoA Total - Correct.xlsx
+++ b/Monthly RoA Total - Correct.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\BW Code\CashDragProject\portfolio_optimizer_streamlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E089F4-916D-4652-9AC8-AB01C1A6F1A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF90E7D-0433-49B1-B50D-47F29877EFB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8010" yWindow="13155" windowWidth="27015" windowHeight="13095" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18015" yWindow="4665" windowWidth="27015" windowHeight="13095" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Month</t>
   </si>
@@ -162,6 +162,9 @@
   </si>
   <si>
     <t>SHORT TERM F1</t>
+  </si>
+  <si>
+    <t>CLO AAA ETF F1</t>
   </si>
 </sst>
 </file>
@@ -553,21 +556,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y20"/>
+  <dimension ref="A1:Z20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.42578125" customWidth="1"/>
-    <col min="24" max="24" width="12.7109375" customWidth="1"/>
-    <col min="25" max="25" width="14.5703125" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.42578125" customWidth="1"/>
+    <col min="25" max="25" width="12.7109375" customWidth="1"/>
+    <col min="26" max="26" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -584,67 +588,70 @@
         <v>41</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>22</v>
       </c>
@@ -656,31 +663,31 @@
         <v>5.2859098964518833E-2</v>
       </c>
       <c r="E2" s="2"/>
-      <c r="F2" s="2">
+      <c r="F2" s="2"/>
+      <c r="G2" s="2">
         <v>4.0445150008276646E-3</v>
       </c>
-      <c r="G2" s="2">
+      <c r="H2" s="2">
         <v>3.014370661414368E-2</v>
       </c>
-      <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
-      <c r="L2" s="5">
+      <c r="L2" s="5"/>
+      <c r="M2" s="5">
         <v>8.4807563311428049E-3</v>
       </c>
-      <c r="M2" s="5"/>
       <c r="N2" s="5"/>
-      <c r="O2" s="5">
+      <c r="O2" s="5"/>
+      <c r="P2" s="5">
         <v>0</v>
       </c>
-      <c r="P2" s="5">
+      <c r="Q2" s="5">
         <v>5.4871200904904369E-2</v>
       </c>
-      <c r="Q2" s="5">
+      <c r="R2" s="5">
         <v>0</v>
       </c>
-      <c r="R2" s="5"/>
       <c r="S2" s="5"/>
       <c r="T2" s="5"/>
       <c r="U2" s="5"/>
@@ -688,8 +695,9 @@
       <c r="W2" s="5"/>
       <c r="X2" s="5"/>
       <c r="Y2" s="5"/>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z2" s="5"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>23</v>
       </c>
@@ -701,31 +709,31 @@
         <v>4.553838548114638E-2</v>
       </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="2">
+      <c r="F3" s="2"/>
+      <c r="G3" s="2">
         <v>6.5354814669872138E-3</v>
       </c>
-      <c r="G3" s="2">
+      <c r="H3" s="2">
         <v>3.201579903932604E-2</v>
       </c>
-      <c r="H3" s="5"/>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
-      <c r="L3" s="5">
+      <c r="L3" s="5"/>
+      <c r="M3" s="5">
         <v>1.488167498604199E-3</v>
       </c>
-      <c r="M3" s="5"/>
       <c r="N3" s="5"/>
-      <c r="O3" s="5">
+      <c r="O3" s="5"/>
+      <c r="P3" s="5">
         <v>1.0471206388565749E-2</v>
       </c>
-      <c r="P3" s="5">
+      <c r="Q3" s="5">
         <v>1.732533471628589E-2</v>
       </c>
-      <c r="Q3" s="5">
+      <c r="R3" s="5">
         <v>0.39075805641571021</v>
       </c>
-      <c r="R3" s="5"/>
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
@@ -733,8 +741,9 @@
       <c r="W3" s="5"/>
       <c r="X3" s="5"/>
       <c r="Y3" s="5"/>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z3" s="5"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>24</v>
       </c>
@@ -746,46 +755,47 @@
         <v>4.1486844004334077E-2</v>
       </c>
       <c r="E4" s="2"/>
-      <c r="F4" s="2">
+      <c r="F4" s="2"/>
+      <c r="G4" s="2">
         <v>4.1914328045700184E-3</v>
       </c>
-      <c r="G4" s="2">
+      <c r="H4" s="2">
         <v>3.574726903914352E-2</v>
       </c>
-      <c r="H4" s="5"/>
       <c r="I4" s="5"/>
-      <c r="J4" s="5">
+      <c r="J4" s="5"/>
+      <c r="K4" s="5">
         <v>1.7692029920608841E-2</v>
       </c>
-      <c r="K4" s="5">
+      <c r="L4" s="5">
         <v>7.5967687313112341E-3</v>
       </c>
-      <c r="L4" s="5">
+      <c r="M4" s="5">
         <v>4.2285068222823158E-2</v>
       </c>
-      <c r="M4" s="5"/>
       <c r="N4" s="5"/>
-      <c r="O4" s="5">
+      <c r="O4" s="5"/>
+      <c r="P4" s="5">
         <v>1.6528925619834711E-2</v>
       </c>
-      <c r="P4" s="5">
+      <c r="Q4" s="5">
         <v>4.950818767525101E-2</v>
       </c>
-      <c r="Q4" s="5">
+      <c r="R4" s="5">
         <v>2.3263253988419691E-2</v>
       </c>
-      <c r="R4" s="5"/>
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
-      <c r="U4" s="5">
+      <c r="U4" s="5"/>
+      <c r="V4" s="5">
         <v>4.5654818665376998E-3</v>
       </c>
-      <c r="V4" s="5"/>
       <c r="W4" s="5"/>
       <c r="X4" s="5"/>
       <c r="Y4" s="5"/>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z4" s="5"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>25</v>
       </c>
@@ -797,46 +807,47 @@
         <v>1.6418815193405139E-2</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="2">
+      <c r="F5" s="2"/>
+      <c r="G5" s="2">
         <v>1.192400345667226E-2</v>
       </c>
-      <c r="G5" s="2">
+      <c r="H5" s="2">
         <v>1.6141862203143311E-2</v>
       </c>
-      <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
-      <c r="K5" s="5">
+      <c r="K5" s="5"/>
+      <c r="L5" s="5">
         <v>2.9352817417286861E-2</v>
       </c>
-      <c r="L5" s="5">
+      <c r="M5" s="5">
         <v>1.3217513671868301E-2</v>
       </c>
-      <c r="M5" s="5">
+      <c r="N5" s="5">
         <v>1.299455817246711E-3</v>
       </c>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5">
+      <c r="O5" s="5"/>
+      <c r="P5" s="5">
         <v>7.9599948556901591E-3</v>
       </c>
-      <c r="P5" s="5">
+      <c r="Q5" s="5">
         <v>1.450241818447455E-2</v>
       </c>
-      <c r="Q5" s="5">
+      <c r="R5" s="5">
         <v>2.161709181243298E-2</v>
       </c>
-      <c r="R5" s="5"/>
       <c r="S5" s="5"/>
       <c r="T5" s="5"/>
-      <c r="U5" s="5">
+      <c r="U5" s="5"/>
+      <c r="V5" s="5">
         <v>1.42427476687902E-2</v>
       </c>
-      <c r="V5" s="5"/>
       <c r="W5" s="5"/>
       <c r="X5" s="5"/>
       <c r="Y5" s="5"/>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z5" s="5"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>26</v>
       </c>
@@ -848,46 +859,47 @@
         <v>1.1633815817880991E-2</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="2">
+      <c r="F6" s="2"/>
+      <c r="G6" s="2">
         <v>3.907872814975127E-3</v>
       </c>
-      <c r="G6" s="2">
+      <c r="H6" s="2">
         <v>1.0823680505790139E-2</v>
       </c>
-      <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
-      <c r="K6" s="5">
+      <c r="K6" s="5"/>
+      <c r="L6" s="5">
         <v>3.8856633266033933E-2</v>
       </c>
-      <c r="L6" s="5">
+      <c r="M6" s="5">
         <v>2.6504462493750418E-2</v>
       </c>
-      <c r="M6" s="5">
+      <c r="N6" s="5">
         <v>7.0588725253356776E-3</v>
       </c>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5">
+      <c r="O6" s="5"/>
+      <c r="P6" s="5">
         <v>2.6677365418722711E-2</v>
       </c>
-      <c r="P6" s="5">
+      <c r="Q6" s="5">
         <v>5.5827079872448476E-3</v>
       </c>
-      <c r="Q6" s="5">
+      <c r="R6" s="5">
         <v>-8.9214401683478735E-4</v>
       </c>
-      <c r="R6" s="5"/>
       <c r="S6" s="5"/>
       <c r="T6" s="5"/>
-      <c r="U6" s="5">
+      <c r="U6" s="5"/>
+      <c r="V6" s="5">
         <v>1.3634994759742501E-2</v>
       </c>
-      <c r="V6" s="5"/>
       <c r="W6" s="5"/>
       <c r="X6" s="5"/>
       <c r="Y6" s="5"/>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z6" s="5"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>27</v>
       </c>
@@ -899,46 +911,47 @@
         <v>6.467626724804265E-3</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="2">
+      <c r="F7" s="2"/>
+      <c r="G7" s="2">
         <v>5.2618657099742809E-3</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>6.6394927660773824E-3</v>
       </c>
-      <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
-      <c r="K7" s="5">
+      <c r="K7" s="5"/>
+      <c r="L7" s="5">
         <v>1.708826361111437E-2</v>
       </c>
-      <c r="L7" s="5">
+      <c r="M7" s="5">
         <v>7.0505002662642298E-3</v>
       </c>
-      <c r="M7" s="5">
+      <c r="N7" s="5">
         <v>1.5822174496916041E-2</v>
       </c>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5">
+      <c r="O7" s="5"/>
+      <c r="P7" s="5">
         <v>1.5834059061040301E-4</v>
       </c>
-      <c r="P7" s="5">
+      <c r="Q7" s="5">
         <v>4.1146715481087922E-3</v>
       </c>
-      <c r="Q7" s="5">
+      <c r="R7" s="5">
         <v>1.2088782567274831E-2</v>
       </c>
-      <c r="R7" s="5"/>
       <c r="S7" s="5"/>
       <c r="T7" s="5"/>
-      <c r="U7" s="5">
+      <c r="U7" s="5"/>
+      <c r="V7" s="5">
         <v>-1.248188649975283E-2</v>
       </c>
-      <c r="V7" s="5"/>
       <c r="W7" s="5"/>
       <c r="X7" s="5"/>
       <c r="Y7" s="5"/>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z7" s="5"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>28</v>
       </c>
@@ -952,48 +965,49 @@
         <v>1.003122193719549E-2</v>
       </c>
       <c r="E8" s="2"/>
-      <c r="F8" s="2">
+      <c r="F8" s="2"/>
+      <c r="G8" s="2">
         <v>8.5805090998862261E-3</v>
       </c>
-      <c r="G8" s="2">
+      <c r="H8" s="2">
         <v>1.073103175036466E-2</v>
       </c>
-      <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
-      <c r="K8" s="5">
+      <c r="K8" s="5"/>
+      <c r="L8" s="5">
         <v>6.8117374596586469E-2</v>
       </c>
-      <c r="L8" s="5">
+      <c r="M8" s="5">
         <v>7.8089166386042614E-3</v>
       </c>
-      <c r="M8" s="5">
+      <c r="N8" s="5">
         <v>4.0392893267271773E-2</v>
       </c>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5">
+      <c r="O8" s="5"/>
+      <c r="P8" s="5">
         <v>-5.1037803328907547E-2</v>
       </c>
-      <c r="P8" s="5">
+      <c r="Q8" s="5">
         <v>1.245879750476583E-2</v>
       </c>
-      <c r="Q8" s="5">
+      <c r="R8" s="5">
         <v>8.1973530718577516E-3</v>
       </c>
-      <c r="R8" s="5"/>
       <c r="S8" s="5"/>
       <c r="T8" s="5"/>
-      <c r="U8" s="5">
+      <c r="U8" s="5"/>
+      <c r="V8" s="5">
         <v>-1.0831566425373001E-3</v>
       </c>
-      <c r="V8" s="5"/>
       <c r="W8" s="5"/>
-      <c r="X8" s="5">
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5">
         <v>2.0757035477932319E-2</v>
       </c>
-      <c r="Y8" s="5"/>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z8" s="5"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>29</v>
       </c>
@@ -1007,50 +1021,51 @@
         <v>3.7521068028613718E-3</v>
       </c>
       <c r="E9" s="2"/>
-      <c r="F9" s="2">
+      <c r="F9" s="2"/>
+      <c r="G9" s="2">
         <v>4.3501748793011172E-3</v>
       </c>
-      <c r="G9" s="2">
+      <c r="H9" s="2">
         <v>6.7474583155763797E-3</v>
       </c>
-      <c r="H9" s="5">
+      <c r="I9" s="5">
         <v>0.1090612024839983</v>
       </c>
-      <c r="I9" s="5"/>
       <c r="J9" s="5"/>
-      <c r="K9" s="5">
+      <c r="K9" s="5"/>
+      <c r="L9" s="5">
         <v>0.1163411391689276</v>
       </c>
-      <c r="L9" s="5">
+      <c r="M9" s="5">
         <v>8.5616884063333034E-3</v>
       </c>
-      <c r="M9" s="5">
+      <c r="N9" s="5">
         <v>3.1939829195740337E-2</v>
       </c>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5">
+      <c r="O9" s="5"/>
+      <c r="P9" s="5">
         <v>7.9876291608714553E-2</v>
       </c>
-      <c r="P9" s="5">
+      <c r="Q9" s="5">
         <v>2.0242353789615059E-3</v>
       </c>
-      <c r="Q9" s="5">
+      <c r="R9" s="5">
         <v>3.1426557759019341E-3</v>
       </c>
-      <c r="R9" s="5"/>
       <c r="S9" s="5"/>
       <c r="T9" s="5"/>
-      <c r="U9" s="5">
+      <c r="U9" s="5"/>
+      <c r="V9" s="5">
         <v>1.553466527394807E-2</v>
       </c>
-      <c r="V9" s="5"/>
       <c r="W9" s="5"/>
-      <c r="X9" s="5">
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5">
         <v>7.7303454332680764E-3</v>
       </c>
-      <c r="Y9" s="5"/>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z9" s="5"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>30</v>
       </c>
@@ -1064,58 +1079,59 @@
         <v>5.7174897132375082E-3</v>
       </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="2">
+      <c r="F10" s="2"/>
+      <c r="G10" s="2">
         <v>7.6211578851102628E-3</v>
       </c>
-      <c r="G10" s="2">
+      <c r="H10" s="2">
         <v>6.3459335379510724E-3</v>
       </c>
-      <c r="H10" s="5">
+      <c r="I10" s="5">
         <v>-6.7118523656489477E-3</v>
       </c>
-      <c r="I10" s="5"/>
       <c r="J10" s="5"/>
-      <c r="K10" s="5">
+      <c r="K10" s="5"/>
+      <c r="L10" s="5">
         <v>2.0952493135785299E-2</v>
       </c>
-      <c r="L10" s="5">
+      <c r="M10" s="5">
         <v>2.19731493806164E-2</v>
       </c>
-      <c r="M10" s="5">
+      <c r="N10" s="5">
         <v>1.8432867016483289E-2</v>
       </c>
-      <c r="N10" s="5">
+      <c r="O10" s="5">
         <v>7.5786367996632078E-3</v>
       </c>
-      <c r="O10" s="5">
+      <c r="P10" s="5">
         <v>-9.746825280505198E-4</v>
       </c>
-      <c r="P10" s="5">
+      <c r="Q10" s="5">
         <v>5.4301368470103493E-3</v>
       </c>
-      <c r="Q10" s="5">
+      <c r="R10" s="5">
         <v>7.0219513787465283E-3</v>
       </c>
-      <c r="R10" s="5">
+      <c r="S10" s="5">
         <v>-2.5857879165170329E-2</v>
       </c>
-      <c r="S10" s="5"/>
       <c r="T10" s="5"/>
-      <c r="U10" s="5">
+      <c r="U10" s="5"/>
+      <c r="V10" s="5">
         <v>7.7873864938866784E-3</v>
       </c>
-      <c r="V10" s="5">
+      <c r="W10" s="5">
         <v>7.6591614629764838E-3</v>
       </c>
-      <c r="W10" s="5"/>
-      <c r="X10" s="5">
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5">
         <v>2.58444538866611E-3</v>
       </c>
-      <c r="Y10" s="5">
+      <c r="Z10" s="5">
         <v>2.380923794495916E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>31</v>
       </c>
@@ -1129,60 +1145,61 @@
         <v>7.9470177434667992E-3</v>
       </c>
       <c r="E11" s="2"/>
-      <c r="F11" s="2">
+      <c r="F11" s="2"/>
+      <c r="G11" s="2">
         <v>5.7091406524225176E-3</v>
       </c>
-      <c r="G11" s="2">
+      <c r="H11" s="2">
         <v>9.0305124028949874E-3</v>
       </c>
-      <c r="H11" s="5">
+      <c r="I11" s="5">
         <v>8.9809384164222864E-2</v>
       </c>
-      <c r="I11" s="5">
+      <c r="J11" s="5">
         <v>-1.5088370395157121E-2</v>
       </c>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5">
+      <c r="K11" s="5"/>
+      <c r="L11" s="5">
         <v>2.7505410084057061E-2</v>
       </c>
-      <c r="L11" s="5">
+      <c r="M11" s="5">
         <v>9.1127544567392894E-3</v>
       </c>
-      <c r="M11" s="5">
+      <c r="N11" s="5">
         <v>9.8083589764269199E-3</v>
       </c>
-      <c r="N11" s="5">
+      <c r="O11" s="5">
         <v>1.7824781728220648E-2</v>
       </c>
-      <c r="O11" s="5">
+      <c r="P11" s="5">
         <v>2.4385914652068422E-2</v>
       </c>
-      <c r="P11" s="5">
+      <c r="Q11" s="5">
         <v>1.053993534410826E-2</v>
       </c>
-      <c r="Q11" s="5">
+      <c r="R11" s="5">
         <v>4.4516230483544108E-3</v>
       </c>
-      <c r="R11" s="5">
+      <c r="S11" s="5">
         <v>3.086283985845378E-2</v>
       </c>
-      <c r="S11" s="5">
+      <c r="T11" s="5">
         <v>1.6337359125429381E-2</v>
       </c>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5">
+      <c r="U11" s="5"/>
+      <c r="V11" s="5">
         <v>7.2929304894474552E-3</v>
       </c>
-      <c r="V11" s="5">
+      <c r="W11" s="5">
         <v>3.78646162096362E-3</v>
       </c>
-      <c r="W11" s="5"/>
       <c r="X11" s="5"/>
-      <c r="Y11" s="5">
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5">
         <v>2.358809691728117E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>32</v>
       </c>
@@ -1194,56 +1211,57 @@
         <v>1.0450218848179871E-2</v>
       </c>
       <c r="E12" s="2"/>
-      <c r="F12" s="2">
+      <c r="F12" s="2"/>
+      <c r="G12" s="2">
         <v>5.4130636046941932E-3</v>
       </c>
-      <c r="G12" s="2">
+      <c r="H12" s="2">
         <v>1.0490913415556771E-2</v>
       </c>
-      <c r="H12" s="5">
+      <c r="I12" s="5">
         <v>1.523818594158298E-3</v>
       </c>
-      <c r="I12" s="5"/>
       <c r="J12" s="5"/>
-      <c r="K12" s="5">
+      <c r="K12" s="5"/>
+      <c r="L12" s="5">
         <v>2.4214611280456121E-2</v>
       </c>
-      <c r="L12" s="5">
+      <c r="M12" s="5">
         <v>1.865049049375825E-3</v>
       </c>
-      <c r="M12" s="5">
+      <c r="N12" s="5">
         <v>1.5385397965393991E-2</v>
       </c>
-      <c r="N12" s="5">
+      <c r="O12" s="5">
         <v>1.2215442202186091E-2</v>
       </c>
-      <c r="O12" s="5">
+      <c r="P12" s="5">
         <v>-1.2028266426101341E-3</v>
       </c>
-      <c r="P12" s="5">
+      <c r="Q12" s="5">
         <v>8.9522925770039348E-3</v>
       </c>
-      <c r="Q12" s="5">
+      <c r="R12" s="5">
         <v>1.067004116582353E-2</v>
       </c>
-      <c r="R12" s="5">
+      <c r="S12" s="5">
         <v>8.3978390067911329E-2</v>
       </c>
-      <c r="S12" s="5">
+      <c r="T12" s="5">
         <v>0.13817255206356099</v>
       </c>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5">
+      <c r="U12" s="5"/>
+      <c r="V12" s="5">
         <v>8.3964171476432342E-3</v>
       </c>
-      <c r="V12" s="5">
+      <c r="W12" s="5">
         <v>9.733709495029946E-3</v>
       </c>
-      <c r="W12" s="5"/>
       <c r="X12" s="5"/>
       <c r="Y12" s="5"/>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z12" s="5"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>33</v>
       </c>
@@ -1255,56 +1273,57 @@
         <v>-6.4090380726414091E-3</v>
       </c>
       <c r="E13" s="2"/>
-      <c r="F13" s="2">
+      <c r="F13" s="2"/>
+      <c r="G13" s="2">
         <v>4.8032006885183141E-3</v>
       </c>
-      <c r="G13" s="2">
+      <c r="H13" s="2">
         <v>-2.671868562712728E-3</v>
       </c>
-      <c r="H13" s="5">
+      <c r="I13" s="5">
         <v>-5.6428907314924495E-4</v>
       </c>
-      <c r="I13" s="5"/>
       <c r="J13" s="5"/>
-      <c r="K13" s="5">
+      <c r="K13" s="5"/>
+      <c r="L13" s="5">
         <v>2.227527306313927E-2</v>
       </c>
-      <c r="L13" s="5">
+      <c r="M13" s="5">
         <v>1.277428766740211E-2</v>
       </c>
-      <c r="M13" s="5">
+      <c r="N13" s="5">
         <v>1.8322559137224529E-2</v>
       </c>
-      <c r="N13" s="5">
+      <c r="O13" s="5">
         <v>9.0219301284452207E-3</v>
       </c>
-      <c r="O13" s="5">
+      <c r="P13" s="5">
         <v>8.0204390614882048E-4</v>
       </c>
-      <c r="P13" s="5">
+      <c r="Q13" s="5">
         <v>-8.1800398509674927E-3</v>
       </c>
-      <c r="Q13" s="5">
+      <c r="R13" s="5">
         <v>-2.0189365109830781E-2</v>
       </c>
-      <c r="R13" s="5">
+      <c r="S13" s="5">
         <v>-6.9017579922473662E-2</v>
       </c>
-      <c r="S13" s="5">
+      <c r="T13" s="5">
         <v>8.4065267447701528E-2</v>
       </c>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5">
+      <c r="U13" s="5"/>
+      <c r="V13" s="5">
         <v>1.1138557546543261E-2</v>
       </c>
-      <c r="V13" s="5">
+      <c r="W13" s="5">
         <v>4.9947848559194442E-3</v>
       </c>
-      <c r="W13" s="5"/>
       <c r="X13" s="5"/>
       <c r="Y13" s="5"/>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z13" s="5"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>34</v>
       </c>
@@ -1316,54 +1335,55 @@
         <v>8.0915441217834835E-3</v>
       </c>
       <c r="E14" s="2"/>
-      <c r="F14" s="2">
+      <c r="F14" s="2"/>
+      <c r="G14" s="2">
         <v>4.5461447828604694E-3</v>
       </c>
-      <c r="G14" s="2">
+      <c r="H14" s="2">
         <v>8.3950907903863302E-3</v>
       </c>
-      <c r="H14" s="5">
+      <c r="I14" s="5">
         <v>0.79870345924376862</v>
       </c>
-      <c r="I14" s="5"/>
       <c r="J14" s="5"/>
-      <c r="K14" s="5">
+      <c r="K14" s="5"/>
+      <c r="L14" s="5">
         <v>1.384805929245975E-2</v>
       </c>
-      <c r="L14" s="5">
+      <c r="M14" s="5">
         <v>1.1411713962719811E-2</v>
       </c>
-      <c r="M14" s="5">
+      <c r="N14" s="5">
         <v>2.595534117224468E-2</v>
       </c>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5">
+      <c r="O14" s="5"/>
+      <c r="P14" s="5">
         <v>1.2696357904439451E-2</v>
       </c>
-      <c r="P14" s="5">
+      <c r="Q14" s="5">
         <v>1.040718387641943E-2</v>
       </c>
-      <c r="Q14" s="5">
+      <c r="R14" s="5">
         <v>6.3264990807695152E-4</v>
       </c>
-      <c r="R14" s="5">
+      <c r="S14" s="5">
         <v>1.524410070514968E-2</v>
       </c>
-      <c r="S14" s="5">
+      <c r="T14" s="5">
         <v>7.2715483778769352E-2</v>
       </c>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5">
+      <c r="U14" s="5"/>
+      <c r="V14" s="5">
         <v>1.1698492390161141E-2</v>
       </c>
-      <c r="V14" s="5">
+      <c r="W14" s="5">
         <v>4.6948660129636881E-3</v>
       </c>
-      <c r="W14" s="5"/>
       <c r="X14" s="5"/>
       <c r="Y14" s="5"/>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z14" s="5"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>35</v>
       </c>
@@ -1375,54 +1395,55 @@
         <v>1.130900894112705E-2</v>
       </c>
       <c r="E15" s="2"/>
-      <c r="F15" s="2">
+      <c r="F15" s="2"/>
+      <c r="G15" s="2">
         <v>3.3658697506315461E-3</v>
       </c>
-      <c r="G15" s="2">
+      <c r="H15" s="2">
         <v>1.1230730160800719E-2</v>
       </c>
-      <c r="H15" s="5">
+      <c r="I15" s="5">
         <v>-0.65385649957904968</v>
       </c>
-      <c r="I15" s="5"/>
       <c r="J15" s="5"/>
-      <c r="K15" s="5">
+      <c r="K15" s="5"/>
+      <c r="L15" s="5">
         <v>1.477945111397894E-2</v>
       </c>
-      <c r="L15" s="5">
+      <c r="M15" s="5">
         <v>1.292770351412377E-2</v>
       </c>
-      <c r="M15" s="5">
+      <c r="N15" s="5">
         <v>2.598373784997372E-2</v>
       </c>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5">
+      <c r="O15" s="5"/>
+      <c r="P15" s="5">
         <v>-3.958802329063177E-4</v>
       </c>
-      <c r="P15" s="5">
+      <c r="Q15" s="5">
         <v>9.8444803551665603E-3</v>
       </c>
-      <c r="Q15" s="5">
+      <c r="R15" s="5">
         <v>1.836072683090768E-2</v>
       </c>
-      <c r="R15" s="5">
+      <c r="S15" s="5">
         <v>-8.6404592344929265E-3</v>
       </c>
-      <c r="S15" s="5">
+      <c r="T15" s="5">
         <v>-9.816009545337781E-2</v>
       </c>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5">
+      <c r="U15" s="5"/>
+      <c r="V15" s="5">
         <v>1.8391142116981209E-2</v>
       </c>
-      <c r="V15" s="5">
+      <c r="W15" s="5">
         <v>1.2380929327019801E-2</v>
       </c>
-      <c r="W15" s="5"/>
       <c r="X15" s="5"/>
       <c r="Y15" s="5"/>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z15" s="5"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>36</v>
       </c>
@@ -1436,60 +1457,61 @@
         <v>2.2753027734543969E-2</v>
       </c>
       <c r="E16" s="2"/>
-      <c r="F16" s="2">
+      <c r="F16" s="2"/>
+      <c r="G16" s="2">
         <v>5.2263990200133196E-3</v>
       </c>
-      <c r="G16" s="2">
+      <c r="H16" s="2">
         <v>1.963690656133624E-2</v>
       </c>
-      <c r="H16" s="5">
+      <c r="I16" s="5">
         <v>7.7325930902790066E-2</v>
       </c>
-      <c r="I16" s="5">
+      <c r="J16" s="5">
         <v>6.7413764841190143E-3</v>
       </c>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5">
+      <c r="K16" s="5"/>
+      <c r="L16" s="5">
         <v>1.987261804789946E-2</v>
       </c>
-      <c r="L16" s="5">
+      <c r="M16" s="5">
         <v>6.3998669362538207E-3</v>
       </c>
-      <c r="M16" s="5">
+      <c r="N16" s="5">
         <v>1.5283644635440911E-2</v>
       </c>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5">
+      <c r="O16" s="5"/>
+      <c r="P16" s="5">
         <v>1.229770149602224E-2</v>
       </c>
-      <c r="P16" s="5">
+      <c r="Q16" s="5">
         <v>2.087115677753084E-2</v>
       </c>
-      <c r="Q16" s="5">
+      <c r="R16" s="5">
         <v>4.268801987275684E-2</v>
       </c>
-      <c r="R16" s="5">
+      <c r="S16" s="5">
         <v>8.2497471792420847E-3</v>
       </c>
-      <c r="S16" s="5">
+      <c r="T16" s="5">
         <v>-1.3061297111697651E-2</v>
       </c>
-      <c r="T16" s="5">
+      <c r="U16" s="5">
         <v>9.6655330800917167E-3</v>
       </c>
-      <c r="U16" s="5">
+      <c r="V16" s="5">
         <v>1.999242187942233E-2</v>
       </c>
-      <c r="V16" s="5">
+      <c r="W16" s="5">
         <v>2.8146416561187419E-3</v>
       </c>
-      <c r="W16" s="5">
+      <c r="X16" s="5">
         <v>6.2357891377567316E-3</v>
       </c>
-      <c r="X16" s="5"/>
       <c r="Y16" s="5"/>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z16" s="5"/>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>37</v>
       </c>
@@ -1503,60 +1525,61 @@
         <v>8.0456713888871403E-3</v>
       </c>
       <c r="E17" s="2"/>
-      <c r="F17" s="2">
+      <c r="F17" s="2"/>
+      <c r="G17" s="2">
         <v>3.4918029530780778E-3</v>
       </c>
-      <c r="G17" s="2">
+      <c r="H17" s="2">
         <v>8.0906716723549155E-3</v>
       </c>
-      <c r="H17" s="5">
+      <c r="I17" s="5">
         <v>1.093534552834134</v>
       </c>
-      <c r="I17" s="5">
+      <c r="J17" s="5">
         <v>5.2895746823313728E-3</v>
       </c>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5">
+      <c r="K17" s="5"/>
+      <c r="L17" s="5">
         <v>6.1304652102941847E-3</v>
       </c>
-      <c r="L17" s="5">
+      <c r="M17" s="5">
         <v>6.6181472094055636E-3</v>
       </c>
-      <c r="M17" s="5">
+      <c r="N17" s="5">
         <v>1.0451210418199689E-3</v>
       </c>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5">
+      <c r="O17" s="5"/>
+      <c r="P17" s="5">
         <v>7.0422868574173042E-2</v>
       </c>
-      <c r="P17" s="5">
+      <c r="Q17" s="5">
         <v>8.5585770437663633E-3</v>
       </c>
-      <c r="Q17" s="5">
+      <c r="R17" s="5">
         <v>1.182892840243931E-2</v>
       </c>
-      <c r="R17" s="5">
+      <c r="S17" s="5">
         <v>-1.6038231321152879E-2</v>
       </c>
-      <c r="S17" s="5">
+      <c r="T17" s="5">
         <v>4.2812746280001777E-2</v>
       </c>
-      <c r="T17" s="5">
+      <c r="U17" s="5">
         <v>9.2429874652643143E-3</v>
       </c>
-      <c r="U17" s="5">
+      <c r="V17" s="5">
         <v>1.0032712046408661E-2</v>
       </c>
-      <c r="V17" s="5">
+      <c r="W17" s="5">
         <v>9.036766483967517E-3</v>
       </c>
-      <c r="W17" s="5">
+      <c r="X17" s="5">
         <v>7.4800078506711163E-3</v>
       </c>
-      <c r="X17" s="5"/>
       <c r="Y17" s="5"/>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z17" s="5"/>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>38</v>
       </c>
@@ -1568,58 +1591,59 @@
         <v>5.176808484673453E-3</v>
       </c>
       <c r="E18" s="2"/>
-      <c r="F18" s="2">
+      <c r="F18" s="2"/>
+      <c r="G18" s="2">
         <v>3.7299763476763429E-3</v>
       </c>
-      <c r="G18" s="2">
+      <c r="H18" s="2">
         <v>9.7808957347038789E-3</v>
       </c>
-      <c r="H18" s="5">
+      <c r="I18" s="5">
         <v>1.3773571645123059</v>
       </c>
-      <c r="I18" s="5">
+      <c r="J18" s="5">
         <v>-0.120780038802482</v>
       </c>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5">
+      <c r="K18" s="5"/>
+      <c r="L18" s="5">
         <v>4.9442380032715238E-3</v>
       </c>
-      <c r="L18" s="5">
+      <c r="M18" s="5">
         <v>5.1456983195185841E-3</v>
       </c>
-      <c r="M18" s="5">
+      <c r="N18" s="5">
         <v>4.2393046884913804E-3</v>
       </c>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5">
+      <c r="O18" s="5"/>
+      <c r="P18" s="5">
         <v>-4.556773305215553E-5</v>
       </c>
-      <c r="P18" s="5">
+      <c r="Q18" s="5">
         <v>4.061970693989737E-3</v>
       </c>
-      <c r="Q18" s="5">
+      <c r="R18" s="5">
         <v>8.9607356775922818E-3</v>
       </c>
-      <c r="R18" s="5">
+      <c r="S18" s="5">
         <v>2.5701583446243331E-2</v>
       </c>
-      <c r="S18" s="5">
+      <c r="T18" s="5">
         <v>2.201842918605992E-2</v>
       </c>
-      <c r="T18" s="5">
+      <c r="U18" s="5">
         <v>9.6312453375303076E-3</v>
       </c>
-      <c r="U18" s="5">
+      <c r="V18" s="5">
         <v>7.908830038401652E-3</v>
       </c>
-      <c r="V18" s="5">
+      <c r="W18" s="5">
         <v>4.5699942177172869E-3</v>
       </c>
-      <c r="W18" s="5"/>
       <c r="X18" s="5"/>
       <c r="Y18" s="5"/>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z18" s="5"/>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>39</v>
       </c>
@@ -1631,58 +1655,59 @@
         <v>4.5964388152200933E-3</v>
       </c>
       <c r="E19" s="2"/>
-      <c r="F19" s="2">
+      <c r="F19" s="2"/>
+      <c r="G19" s="2">
         <v>3.7221126459696901E-3</v>
       </c>
-      <c r="G19" s="2">
+      <c r="H19" s="2">
         <v>8.8932443347206538E-3</v>
       </c>
-      <c r="H19" s="5">
+      <c r="I19" s="5">
         <v>-5.9302285137908251E-3</v>
       </c>
-      <c r="I19" s="5">
+      <c r="J19" s="5">
         <v>-5.6647284507800939E-2</v>
       </c>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5">
+      <c r="K19" s="5"/>
+      <c r="L19" s="5">
         <v>4.8227699912545509E-3</v>
       </c>
-      <c r="L19" s="5">
+      <c r="M19" s="5">
         <v>4.0169858195712371E-3</v>
       </c>
-      <c r="M19" s="5">
+      <c r="N19" s="5">
         <v>1.682866646970623E-3</v>
       </c>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5">
+      <c r="O19" s="5"/>
+      <c r="P19" s="5">
         <v>1.1011668756664719E-2</v>
       </c>
-      <c r="P19" s="5">
+      <c r="Q19" s="5">
         <v>3.2877835837813781E-3</v>
       </c>
-      <c r="Q19" s="5">
+      <c r="R19" s="5">
         <v>1.988185598078545E-2</v>
       </c>
-      <c r="R19" s="5">
+      <c r="S19" s="5">
         <v>1.0703330022904609E-2</v>
       </c>
-      <c r="S19" s="5">
+      <c r="T19" s="5">
         <v>3.7974168628337468E-2</v>
       </c>
-      <c r="T19" s="5">
+      <c r="U19" s="5">
         <v>1.0113229612793911E-2</v>
       </c>
-      <c r="U19" s="5">
+      <c r="V19" s="5">
         <v>3.8961222644603279E-3</v>
       </c>
-      <c r="V19" s="5">
+      <c r="W19" s="5">
         <v>4.8988800307520472E-3</v>
       </c>
-      <c r="W19" s="5"/>
       <c r="X19" s="5"/>
       <c r="Y19" s="5"/>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z19" s="5"/>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>45778</v>
       </c>
@@ -1697,53 +1722,56 @@
         <v>2.9482081213155699E-3</v>
       </c>
       <c r="F20" s="2">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="G20" s="2">
         <v>3.61638486420309E-3</v>
       </c>
-      <c r="G20" s="2">
+      <c r="H20" s="2">
         <v>1.19677490460344E-2</v>
       </c>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2">
+      <c r="I20" s="2"/>
+      <c r="J20" s="2">
         <v>7.8607950851264805E-2</v>
       </c>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2">
+      <c r="K20" s="2"/>
+      <c r="L20" s="2">
         <v>6.6286199885192604E-2</v>
       </c>
-      <c r="L20" s="2">
+      <c r="M20" s="2">
         <v>2.13044883464408E-2</v>
       </c>
-      <c r="M20" s="2">
+      <c r="N20" s="2">
         <v>7.56208581480451E-3</v>
       </c>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2">
+      <c r="O20" s="2"/>
+      <c r="P20" s="2">
         <v>6.7578221871267795E-4</v>
       </c>
-      <c r="P20" s="2">
+      <c r="Q20" s="2">
         <v>4.8534157866455601E-3</v>
       </c>
-      <c r="Q20" s="2">
+      <c r="R20" s="2">
         <v>8.6748451024642494E-3</v>
       </c>
-      <c r="R20" s="2">
+      <c r="S20" s="2">
         <v>-6.7549627172674306E-2</v>
       </c>
-      <c r="S20" s="2">
+      <c r="T20" s="2">
         <v>1.9812116106194998E-2</v>
       </c>
-      <c r="T20" s="2">
+      <c r="U20" s="2">
         <v>1.0157619985705101E-2</v>
       </c>
-      <c r="U20" s="2">
+      <c r="V20" s="2">
         <v>1.65367513349453E-2</v>
       </c>
-      <c r="V20" s="2">
+      <c r="W20" s="2">
         <v>1.4408686922871001E-2</v>
       </c>
-      <c r="W20" s="2"/>
       <c r="X20" s="2"/>
       <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Monthly RoA Total - Correct.xlsx
+++ b/Monthly RoA Total - Correct.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\BW Code\CashDragProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F3F80F3-C077-4A61-B5BB-05CF7FB97D34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7BEB682-80EC-44C3-9916-56527B8DFB7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24990" yWindow="6030" windowWidth="27015" windowHeight="13095" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30390" yWindow="6660" windowWidth="25560" windowHeight="17490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Month</t>
   </si>
@@ -162,6 +162,15 @@
   </si>
   <si>
     <t>SHORT TERM F1</t>
+  </si>
+  <si>
+    <t>CLO AAA ETF F1</t>
+  </si>
+  <si>
+    <t>CLO MEZZ F1</t>
+  </si>
+  <si>
+    <t>TRUPS MEZZ F1</t>
   </si>
 </sst>
 </file>
@@ -209,7 +218,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -232,12 +241,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -248,6 +268,10 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -553,7 +577,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y20"/>
+  <dimension ref="A1:AB21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
@@ -562,12 +586,19 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="15.42578125" customWidth="1"/>
     <col min="24" max="24" width="12.7109375" customWidth="1"/>
     <col min="25" max="25" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -643,8 +674,17 @@
       <c r="Y1" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="Z1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB1" s="7" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>22</v>
       </c>
@@ -689,7 +729,7 @@
       <c r="X2" s="5"/>
       <c r="Y2" s="5"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>23</v>
       </c>
@@ -734,7 +774,7 @@
       <c r="X3" s="5"/>
       <c r="Y3" s="5"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>24</v>
       </c>
@@ -785,7 +825,7 @@
       <c r="X4" s="5"/>
       <c r="Y4" s="5"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>25</v>
       </c>
@@ -836,7 +876,7 @@
       <c r="X5" s="5"/>
       <c r="Y5" s="5"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>26</v>
       </c>
@@ -887,7 +927,7 @@
       <c r="X6" s="5"/>
       <c r="Y6" s="5"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>27</v>
       </c>
@@ -938,7 +978,7 @@
       <c r="X7" s="5"/>
       <c r="Y7" s="5"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>28</v>
       </c>
@@ -993,7 +1033,7 @@
       </c>
       <c r="Y8" s="5"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>29</v>
       </c>
@@ -1050,7 +1090,7 @@
       </c>
       <c r="Y9" s="5"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>30</v>
       </c>
@@ -1115,7 +1155,7 @@
         <v>2.380923794495916E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>31</v>
       </c>
@@ -1182,7 +1222,7 @@
         <v>2.358809691728117E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>32</v>
       </c>
@@ -1243,7 +1283,7 @@
       <c r="X12" s="5"/>
       <c r="Y12" s="5"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>33</v>
       </c>
@@ -1304,7 +1344,7 @@
       <c r="X13" s="5"/>
       <c r="Y13" s="5"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>34</v>
       </c>
@@ -1363,7 +1403,7 @@
       <c r="X14" s="5"/>
       <c r="Y14" s="5"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>35</v>
       </c>
@@ -1422,7 +1462,7 @@
       <c r="X15" s="5"/>
       <c r="Y15" s="5"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>36</v>
       </c>
@@ -1489,7 +1529,7 @@
       <c r="X16" s="5"/>
       <c r="Y16" s="5"/>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>37</v>
       </c>
@@ -1556,7 +1596,7 @@
       <c r="X17" s="5"/>
       <c r="Y17" s="5"/>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>38</v>
       </c>
@@ -1619,7 +1659,7 @@
       <c r="X18" s="5"/>
       <c r="Y18" s="5"/>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>39</v>
       </c>
@@ -1682,7 +1722,7 @@
       <c r="X19" s="5"/>
       <c r="Y19" s="5"/>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>45778</v>
       </c>
@@ -1744,6 +1784,59 @@
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
       <c r="Y20" s="2"/>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>45809</v>
+      </c>
+      <c r="C21" s="6">
+        <v>2.24E-2</v>
+      </c>
+      <c r="D21" s="6">
+        <v>3.5900000000000001E-2</v>
+      </c>
+      <c r="E21" s="6">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="F21" s="6">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K21" s="2">
+        <v>4.9824343700000003E-2</v>
+      </c>
+      <c r="L21" s="2">
+        <v>1.1138162199999999E-2</v>
+      </c>
+      <c r="M21" s="2">
+        <v>6.1878486000000003E-3</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2">
+        <v>1.17919488E-2</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>3.9378215899999999E-2</v>
+      </c>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2">
+        <v>5.6501178399999998E-2</v>
+      </c>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2">
+        <v>3.2513108000000002E-3</v>
+      </c>
+      <c r="AA21" s="2">
+        <v>9.0110095000000001E-3</v>
+      </c>
+      <c r="AB21" s="2">
+        <v>9.0373437000000004E-3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1752,6 +1845,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100572F39F379485941A052184567561C33" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7c3822a37d5a98658884236550ca66e7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="62537be5-96bf-45a7-b525-5d0c59b29924" xmlns:ns4="b4b63fd0-8e4c-468f-bbaf-f55c8da78e53" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fe85f39d6345a37fe79994e516824198" ns3:_="" ns4:_="">
     <xsd:import namespace="62537be5-96bf-45a7-b525-5d0c59b29924"/>
@@ -1954,15 +2056,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1972,6 +2065,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2CBFB7D-2BFD-4688-A356-0D1DE0FBEE38}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2FF66538-16F2-4126-92B0-052E532F25D4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1986,14 +2087,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2CBFB7D-2BFD-4688-A356-0D1DE0FBEE38}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
